--- a/storage/AGENDA.xlsx
+++ b/storage/AGENDA.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27915" windowHeight="12675"/>
+    <workbookView windowWidth="13230" windowHeight="11955"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -915,10 +915,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -929,24 +929,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -961,36 +968,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -998,10 +983,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1021,22 +1014,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,6 +1029,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1059,15 +1051,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,7 +1082,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,31 +1130,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,13 +1196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,7 +1208,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,97 +1256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,11 +1276,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,17 +1315,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,13 +1339,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1359,17 +1363,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1378,153 +1378,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1849,13 +1852,19 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="46.2" customWidth="1"/>
+    <col min="2" max="2" width="9.4" customWidth="1"/>
+    <col min="4" max="4" width="11.7" customWidth="1"/>
+    <col min="5" max="5" width="12.9" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.2" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3" style="1"/>
+    <col min="13" max="13" width="10.2" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1874,13 +1883,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1924,13 +1933,13 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>71798826</v>
       </c>
       <c r="I2">
@@ -1974,13 +1983,13 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>60506160</v>
       </c>
       <c r="I3">
@@ -2027,13 +2036,13 @@
       <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I4">
@@ -2080,13 +2089,13 @@
       <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>72007768</v>
       </c>
       <c r="I5">
@@ -2133,7 +2142,7 @@
       <c r="E6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
@@ -2180,13 +2189,13 @@
       <c r="E7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>71237401</v>
       </c>
       <c r="I7">
@@ -2233,13 +2242,13 @@
       <c r="E8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>78788891</v>
       </c>
       <c r="I8">
@@ -2286,13 +2295,13 @@
       <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G9" t="s">
         <v>76</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I9">
@@ -2339,13 +2348,13 @@
       <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G10" t="s">
         <v>82</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>2783624</v>
       </c>
       <c r="I10">
@@ -2392,13 +2401,13 @@
       <c r="E11" t="s">
         <v>86</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G11" t="s">
         <v>88</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>72044627</v>
       </c>
       <c r="I11">
@@ -2445,13 +2454,13 @@
       <c r="E12" t="s">
         <v>92</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G12" t="s">
         <v>94</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>70606535</v>
       </c>
       <c r="I12">
@@ -2498,13 +2507,13 @@
       <c r="E13" t="s">
         <v>97</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G13" t="s">
         <v>99</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>70666802</v>
       </c>
       <c r="I13">
@@ -2548,13 +2557,13 @@
       <c r="E14" t="s">
         <v>101</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G14" t="s">
         <v>103</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>76533224</v>
       </c>
       <c r="I14">
@@ -2601,13 +2610,13 @@
       <c r="E15" t="s">
         <v>108</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G15" t="s">
         <v>110</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>2444124</v>
       </c>
       <c r="I15">
@@ -2651,13 +2660,13 @@
       <c r="E16" t="s">
         <v>114</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G16" t="s">
         <v>116</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I16">
@@ -2704,13 +2713,13 @@
       <c r="E17" t="s">
         <v>121</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G17" t="s">
         <v>123</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>78812318</v>
       </c>
       <c r="I17">
@@ -2754,13 +2763,13 @@
       <c r="E18" t="s">
         <v>126</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G18" t="s">
         <v>128</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>71979626</v>
       </c>
       <c r="I18">
@@ -2807,13 +2816,13 @@
       <c r="E19" t="s">
         <v>132</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G19" t="s">
         <v>134</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>2791424</v>
       </c>
       <c r="I19">
@@ -2860,7 +2869,7 @@
       <c r="E20" t="s">
         <v>138</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G20" t="s">
@@ -2904,7 +2913,7 @@
       <c r="E21" t="s">
         <v>144</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G21" t="s">
@@ -2954,13 +2963,13 @@
       <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>148</v>
       </c>
       <c r="G22" t="s">
         <v>149</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>70628862</v>
       </c>
       <c r="I22">
@@ -3007,13 +3016,13 @@
       <c r="E23" t="s">
         <v>153</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G23" t="s">
         <v>155</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>2453982</v>
       </c>
       <c r="I23">
@@ -3051,13 +3060,13 @@
       <c r="E24" t="s">
         <v>158</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G24" t="s">
         <v>160</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>75295783</v>
       </c>
       <c r="I24">
@@ -3104,13 +3113,13 @@
       <c r="E25" t="s">
         <v>164</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>165</v>
       </c>
       <c r="G25" t="s">
         <v>166</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>76204116</v>
       </c>
       <c r="I25">
@@ -3154,13 +3163,13 @@
       <c r="E26" t="s">
         <v>170</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>171</v>
       </c>
       <c r="G26" t="s">
         <v>172</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>73054151</v>
       </c>
       <c r="I26">
@@ -3204,13 +3213,13 @@
       <c r="E27" t="s">
         <v>175</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>176</v>
       </c>
       <c r="G27" t="s">
         <v>177</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>72072043</v>
       </c>
       <c r="I27">
@@ -3257,13 +3266,13 @@
       <c r="E28" t="s">
         <v>181</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>182</v>
       </c>
       <c r="G28" t="s">
         <v>183</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>2253759</v>
       </c>
       <c r="I28">
@@ -3310,13 +3319,13 @@
       <c r="E29" t="s">
         <v>187</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G29" t="s">
         <v>189</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>75275831</v>
       </c>
       <c r="I29">
@@ -3363,13 +3372,13 @@
       <c r="E30" t="s">
         <v>193</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G30" t="s">
         <v>195</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>78961660</v>
       </c>
       <c r="I30">
@@ -3416,13 +3425,13 @@
       <c r="E31" t="s">
         <v>199</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>201</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>2732884</v>
       </c>
       <c r="I31">
@@ -3469,13 +3478,13 @@
       <c r="E32" t="s">
         <v>204</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>205</v>
       </c>
       <c r="G32" t="s">
         <v>206</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>79615050</v>
       </c>
       <c r="I32">
@@ -3522,13 +3531,13 @@
       <c r="E33" t="s">
         <v>208</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G33" t="s">
         <v>210</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>68211329</v>
       </c>
       <c r="I33">
@@ -3572,13 +3581,13 @@
       <c r="E34" t="s">
         <v>214</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>215</v>
       </c>
       <c r="G34" t="s">
         <v>216</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>67083329</v>
       </c>
       <c r="I34">
@@ -3625,7 +3634,7 @@
       <c r="E35" t="s">
         <v>219</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>220</v>
       </c>
       <c r="G35" t="s">
@@ -3675,13 +3684,13 @@
       <c r="E36" t="s">
         <v>224</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G36" t="s">
         <v>226</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>227</v>
       </c>
       <c r="I36">
@@ -3728,13 +3737,13 @@
       <c r="E37" t="s">
         <v>231</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>232</v>
       </c>
       <c r="G37" t="s">
         <v>233</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>79606391</v>
       </c>
       <c r="I37">
@@ -3778,13 +3787,13 @@
       <c r="E38" t="s">
         <v>60</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>236</v>
       </c>
       <c r="G38" t="s">
         <v>237</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>70666087</v>
       </c>
       <c r="I38">
@@ -3828,13 +3837,13 @@
       <c r="D39" t="s">
         <v>240</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G39" t="s">
         <v>242</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>69489621</v>
       </c>
       <c r="I39">
@@ -3878,13 +3887,13 @@
       <c r="E40" t="s">
         <v>245</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>246</v>
       </c>
       <c r="G40" t="s">
         <v>247</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>2797025</v>
       </c>
       <c r="I40">
@@ -3931,13 +3940,13 @@
       <c r="E41" t="s">
         <v>251</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>252</v>
       </c>
       <c r="G41" t="s">
         <v>253</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>7158725</v>
       </c>
       <c r="I41">
@@ -3984,13 +3993,13 @@
       <c r="E42" t="s">
         <v>258</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G42" t="s">
         <v>260</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>65629349</v>
       </c>
       <c r="I42">
@@ -4037,13 +4046,13 @@
       <c r="E43" t="s">
         <v>264</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>265</v>
       </c>
       <c r="G43" t="s">
         <v>266</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>2416216</v>
       </c>
       <c r="I43">
@@ -4090,13 +4099,13 @@
       <c r="E44" t="s">
         <v>269</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>270</v>
       </c>
       <c r="G44" t="s">
         <v>271</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>78795156</v>
       </c>
       <c r="I44">
@@ -4140,13 +4149,13 @@
       <c r="E45" t="s">
         <v>274</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G45" t="s">
         <v>276</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>62530910</v>
       </c>
       <c r="I45">
@@ -4193,13 +4202,13 @@
       <c r="E46" t="s">
         <v>279</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>280</v>
       </c>
       <c r="G46" t="s">
         <v>281</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>2458103</v>
       </c>
       <c r="I46">
@@ -4246,13 +4255,13 @@
       <c r="E47" t="s">
         <v>285</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>286</v>
       </c>
       <c r="G47" t="s">
         <v>287</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>69757730</v>
       </c>
       <c r="I47">
@@ -4299,13 +4308,13 @@
       <c r="E48" t="s">
         <v>290</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G48" t="s">
         <v>292</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>2236811</v>
       </c>
       <c r="I48">
@@ -4352,13 +4361,13 @@
       <c r="E49" t="s">
         <v>295</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>296</v>
       </c>
       <c r="G49" t="s">
         <v>297</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>73208110</v>
       </c>
       <c r="I49">

--- a/storage/AGENDA.xlsx
+++ b/storage/AGENDA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7740"/>
+    <workbookView windowWidth="13230" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1045,10 +1045,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1063,6 +1063,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1081,15 +1096,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,7 +1126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,7 +1149,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,16 +1170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,7 +1188,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,39 +1203,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1218,7 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,43 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,7 +1248,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,13 +1290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1314,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,61 +1392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,16 +1440,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1460,15 +1460,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1488,28 +1479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,8 +1491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1537,153 +1511,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2053,27 +2053,27 @@
   <sheetPr/>
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:G$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="47.375" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.3733333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.7533333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.7533333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.37333333333333" customWidth="1"/>
+    <col min="6" max="6" width="9.87333333333333" style="1" customWidth="1"/>
     <col min="7" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="35.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.375" customWidth="1"/>
-    <col min="12" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="18.875" customWidth="1"/>
-    <col min="15" max="15" width="18.875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="18.875" customWidth="1"/>
-    <col min="17" max="17" width="18.875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="18.875" customWidth="1"/>
-    <col min="21" max="21" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="35.8733333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.3733333333333" customWidth="1"/>
+    <col min="12" max="13" width="12.3733333333333" customWidth="1"/>
+    <col min="14" max="14" width="18.8733333333333" customWidth="1"/>
+    <col min="15" max="15" width="18.8733333333333" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.8733333333333" customWidth="1"/>
+    <col min="17" max="17" width="18.8733333333333" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.8733333333333" customWidth="1"/>
+    <col min="21" max="21" width="12.7533333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -2143,7 +2143,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="5">
-        <v>14172</v>
+        <v>22511</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>21</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="5">
-        <v>14173</v>
+        <v>22512</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>32</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5">
-        <v>14174</v>
+        <v>22513</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>39</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5">
-        <v>14175</v>
+        <v>22514</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>47</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5">
-        <v>14176</v>
+        <v>22515</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>53</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5">
-        <v>14177</v>
+        <v>22516</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>60</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5">
-        <v>14178</v>
+        <v>22517</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5">
-        <v>14179</v>
+        <v>22518</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>74</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5">
-        <v>14180</v>
+        <v>22519</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>81</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5">
-        <v>14181</v>
+        <v>22520</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>88</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5">
-        <v>14182</v>
+        <v>22521</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>94</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5">
-        <v>14183</v>
+        <v>22522</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>100</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5">
-        <v>14184</v>
+        <v>22523</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>107</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5">
-        <v>14185</v>
+        <v>22524</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>113</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5">
-        <v>14186</v>
+        <v>22525</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>119</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5">
-        <v>14187</v>
+        <v>22526</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>126</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5">
-        <v>14188</v>
+        <v>22527</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>132</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5">
-        <v>14189</v>
+        <v>22528</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>138</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5">
-        <v>14190</v>
+        <v>22529</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>144</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5">
-        <v>14191</v>
+        <v>22530</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>150</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5">
-        <v>14192</v>
+        <v>22531</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>157</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5">
-        <v>14193</v>
+        <v>22532</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>164</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5">
-        <v>14194</v>
+        <v>22533</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>171</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5">
-        <v>14195</v>
+        <v>22534</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>177</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5">
-        <v>14196</v>
+        <v>22535</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>183</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5">
-        <v>14197</v>
+        <v>22536</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>189</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5">
-        <v>14198</v>
+        <v>22537</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>196</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5">
-        <v>14199</v>
+        <v>22538</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>203</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5">
-        <v>14200</v>
+        <v>22539</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>210</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5">
-        <v>14201</v>
+        <v>22540</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>217</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5">
-        <v>14202</v>
+        <v>22541</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>224</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5">
-        <v>14203</v>
+        <v>22542</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>231</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="5">
-        <v>14204</v>
+        <v>22543</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>238</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="5">
-        <v>14205</v>
+        <v>22544</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>244</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="5">
-        <v>14206</v>
+        <v>22545</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>251</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="5">
-        <v>14207</v>
+        <v>22546</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>258</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="5">
-        <v>14208</v>
+        <v>22547</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>265</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="5">
-        <v>14209</v>
+        <v>22548</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>270</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="5">
-        <v>14210</v>
+        <v>22549</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>277</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="5">
-        <v>14211</v>
+        <v>22550</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>284</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="5">
-        <v>14212</v>
+        <v>22551</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>291</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="5">
-        <v>14213</v>
+        <v>22552</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>297</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="5">
-        <v>14214</v>
+        <v>22553</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>303</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="5">
-        <v>14215</v>
+        <v>22554</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>310</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="5">
-        <v>14216</v>
+        <v>22555</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>316</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="5">
-        <v>14217</v>
+        <v>22556</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>322</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="5">
-        <v>14218</v>
+        <v>22557</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>328</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="5">
-        <v>14219</v>
+        <v>22558</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>334</v>

--- a/storage/AGENDA.xlsx
+++ b/storage/AGENDA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13230" windowHeight="11955"/>
+    <workbookView windowWidth="27915" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <t>01/05/2007</t>
   </si>
   <si>
-    <t>administrador</t>
+    <t>MGB</t>
   </si>
   <si>
     <t>20:56:07</t>
@@ -1045,10 +1045,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1065,9 +1065,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,43 +1106,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,18 +1119,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1155,22 +1156,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1186,16 +1185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,9 +1195,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1218,7 +1218,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,49 +1380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,121 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,16 +1440,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1481,18 +1481,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,25 +1507,32 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1542,148 +1542,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2053,8 +2053,8 @@
   <sheetPr/>
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>

--- a/storage/AGENDA.xlsx
+++ b/storage/AGENDA.xlsx
@@ -1045,10 +1045,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1065,8 +1065,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,17 +1103,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,37 +1127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,22 +1148,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,9 +1187,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,7 +1218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,7 +1236,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,13 +1362,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,145 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,21 +1440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1479,13 +1464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,6 +1490,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,168 +1537,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2053,8 +2053,8 @@
   <sheetPr/>
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="5">
-        <v>22511</v>
+        <v>22514</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>21</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="5">
-        <v>22512</v>
+        <v>22515</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>32</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5">
-        <v>22513</v>
+        <v>22516</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>39</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5">
-        <v>22514</v>
+        <v>22517</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>47</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5">
-        <v>22515</v>
+        <v>22518</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>53</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5">
-        <v>22516</v>
+        <v>22519</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>60</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5">
-        <v>22517</v>
+        <v>22520</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>67</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5">
-        <v>22518</v>
+        <v>22521</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>74</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5">
-        <v>22519</v>
+        <v>22522</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>81</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5">
-        <v>22520</v>
+        <v>22523</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>88</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5">
-        <v>22521</v>
+        <v>22524</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>94</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5">
-        <v>22522</v>
+        <v>22525</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>100</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5">
-        <v>22523</v>
+        <v>22526</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>107</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5">
-        <v>22524</v>
+        <v>22527</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>113</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5">
-        <v>22525</v>
+        <v>22528</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>119</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5">
-        <v>22526</v>
+        <v>22529</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>126</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5">
-        <v>22527</v>
+        <v>22530</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>132</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5">
-        <v>22528</v>
+        <v>22531</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>138</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5">
-        <v>22529</v>
+        <v>22532</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>144</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5">
-        <v>22530</v>
+        <v>22533</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>150</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5">
-        <v>22531</v>
+        <v>22534</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>157</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5">
-        <v>22532</v>
+        <v>22535</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>164</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5">
-        <v>22533</v>
+        <v>22536</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>171</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5">
-        <v>22534</v>
+        <v>22537</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>177</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5">
-        <v>22535</v>
+        <v>22538</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>183</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5">
-        <v>22536</v>
+        <v>22539</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>189</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5">
-        <v>22537</v>
+        <v>22540</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>196</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5">
-        <v>22538</v>
+        <v>22541</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>203</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5">
-        <v>22539</v>
+        <v>22542</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>210</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5">
-        <v>22540</v>
+        <v>22543</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>217</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5">
-        <v>22541</v>
+        <v>22544</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>224</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5">
-        <v>22542</v>
+        <v>22545</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>231</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="5">
-        <v>22543</v>
+        <v>22546</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>238</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="5">
-        <v>22544</v>
+        <v>22547</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>244</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="5">
-        <v>22545</v>
+        <v>22548</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>251</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="5">
-        <v>22546</v>
+        <v>22549</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>258</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="5">
-        <v>22547</v>
+        <v>22550</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>265</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="5">
-        <v>22548</v>
+        <v>22551</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>270</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="5">
-        <v>22549</v>
+        <v>22552</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>277</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="5">
-        <v>22550</v>
+        <v>22553</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>284</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="5">
-        <v>22551</v>
+        <v>22554</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>291</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="5">
-        <v>22552</v>
+        <v>22555</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>297</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="5">
-        <v>22553</v>
+        <v>22556</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>303</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="5">
-        <v>22554</v>
+        <v>22557</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>310</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="5">
-        <v>22555</v>
+        <v>22558</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>316</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="5">
-        <v>22556</v>
+        <v>22559</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>322</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="5">
-        <v>22557</v>
+        <v>22560</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>328</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="5">
-        <v>22558</v>
+        <v>22561</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>334</v>

--- a/storage/AGENDA.xlsx
+++ b/storage/AGENDA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13230" windowHeight="11955"/>
+    <workbookView windowWidth="8430" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="515">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,33 @@
     <t>par_profesion</t>
   </si>
   <si>
+    <t>nombres</t>
+  </si>
+  <si>
+    <t>nombre1</t>
+  </si>
+  <si>
+    <t>nombre2</t>
+  </si>
+  <si>
+    <t>appaterno</t>
+  </si>
+  <si>
+    <t>apmaterno</t>
+  </si>
+  <si>
+    <t>apesposo</t>
+  </si>
+  <si>
+    <t>fecha_exp</t>
+  </si>
+  <si>
+    <t>par_fuerza</t>
+  </si>
+  <si>
+    <t>numero_papeleta</t>
+  </si>
+  <si>
     <t>JOSE MARQUEZ VILLARROEL</t>
   </si>
   <si>
@@ -106,6 +133,15 @@
     <t>27/02/2020</t>
   </si>
   <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>VILLARROEL</t>
+  </si>
+  <si>
     <t>JHOANA FERNANDEZ TORREZ</t>
   </si>
   <si>
@@ -124,6 +160,18 @@
     <t>20:58:04</t>
   </si>
   <si>
+    <t xml:space="preserve">JHOANA </t>
+  </si>
+  <si>
+    <t>JHOANA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>TORREZ</t>
+  </si>
+  <si>
     <t>VIVIANA JANET PARDO VASQUEZ</t>
   </si>
   <si>
@@ -145,6 +193,21 @@
     <t>20:56:08</t>
   </si>
   <si>
+    <t>VIVIANA JANET</t>
+  </si>
+  <si>
+    <t>VIVIANA</t>
+  </si>
+  <si>
+    <t>JANET</t>
+  </si>
+  <si>
+    <t>PARDO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
     <t>MARIA HORTENCIA  MONTAÑO ALARCON</t>
   </si>
   <si>
@@ -163,6 +226,21 @@
     <t>20:58:05</t>
   </si>
   <si>
+    <t>MARIA HORTENCIA</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>HORTENCIA</t>
+  </si>
+  <si>
+    <t>MONTAÑO</t>
+  </si>
+  <si>
+    <t>ALARCON</t>
+  </si>
+  <si>
     <t>WENDY MARIAN CHAMBY SALINAS</t>
   </si>
   <si>
@@ -181,6 +259,21 @@
     <t>20:56:09</t>
   </si>
   <si>
+    <t>WENDY MARIAN</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>MARIAN</t>
+  </si>
+  <si>
+    <t>CHAMBY</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
     <t>NELLY PEREZ SEGOVIA</t>
   </si>
   <si>
@@ -199,6 +292,15 @@
     <t>20:58:06</t>
   </si>
   <si>
+    <t>NELLY</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>SEGOVIA</t>
+  </si>
+  <si>
     <t>AUGUSTO SERGIO PAIRO QUISPE</t>
   </si>
   <si>
@@ -217,6 +319,21 @@
     <t>20:56:10</t>
   </si>
   <si>
+    <t>AUGUSTO SERGIO</t>
+  </si>
+  <si>
+    <t>AUGUSTO</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>PAIRO</t>
+  </si>
+  <si>
+    <t>QUISPE</t>
+  </si>
+  <si>
     <t>SANTOS ANDRES ARUQUIPA CARVAJAL</t>
   </si>
   <si>
@@ -238,6 +355,21 @@
     <t>20:58:07</t>
   </si>
   <si>
+    <t>SANTOS ANDRES</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>ARUQUIPA</t>
+  </si>
+  <si>
+    <t>CARVAJAL</t>
+  </si>
+  <si>
     <t>DELFIN JAIME PACHECO PEREZ</t>
   </si>
   <si>
@@ -256,6 +388,18 @@
     <t>20:56:11</t>
   </si>
   <si>
+    <t>DELFIN JAIME</t>
+  </si>
+  <si>
+    <t>DELFIN</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
     <t>IBETH DACIA CALLEJAS HUASCO</t>
   </si>
   <si>
@@ -274,6 +418,21 @@
     <t>20:58:08</t>
   </si>
   <si>
+    <t>IBETH DACIA</t>
+  </si>
+  <si>
+    <t>IBETH</t>
+  </si>
+  <si>
+    <t>DACIA</t>
+  </si>
+  <si>
+    <t>CALLEJAS</t>
+  </si>
+  <si>
+    <t>HUASCO</t>
+  </si>
+  <si>
     <t>NESTOR MARTIN CORONEL CUENTAS</t>
   </si>
   <si>
@@ -292,6 +451,21 @@
     <t>20:56:12</t>
   </si>
   <si>
+    <t>NESTOR MARTIN</t>
+  </si>
+  <si>
+    <t>NESTOR</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>CORONEL</t>
+  </si>
+  <si>
+    <t>CUENTAS</t>
+  </si>
+  <si>
     <t>RITA TERESA FERNANDEZ DE VIDAURRE</t>
   </si>
   <si>
@@ -310,6 +484,18 @@
     <t>20:58:09</t>
   </si>
   <si>
+    <t>RITA TERESA</t>
+  </si>
+  <si>
+    <t>RITA</t>
+  </si>
+  <si>
+    <t>TERESA</t>
+  </si>
+  <si>
+    <t>DE VIDAURRE</t>
+  </si>
+  <si>
     <t>OVIDIO ARUQUIPA ZULETA</t>
   </si>
   <si>
@@ -328,6 +514,12 @@
     <t>20:56:13</t>
   </si>
   <si>
+    <t>OVIDIO</t>
+  </si>
+  <si>
+    <t>ZULETA</t>
+  </si>
+  <si>
     <t>JANETH VELARDE MUÑOZ DE MEDINA</t>
   </si>
   <si>
@@ -346,6 +538,21 @@
     <t>20:58:10</t>
   </si>
   <si>
+    <t>JANETH VELARDE</t>
+  </si>
+  <si>
+    <t>JANETH</t>
+  </si>
+  <si>
+    <t>VELARDE</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>DE MEDINA</t>
+  </si>
+  <si>
     <t>NOELIA SANTAMARIA UNTIVEROS</t>
   </si>
   <si>
@@ -367,6 +574,15 @@
     <t>20:56:14</t>
   </si>
   <si>
+    <t>NOELIA</t>
+  </si>
+  <si>
+    <t>SANTAMARIA</t>
+  </si>
+  <si>
+    <t>UNTIVEROS</t>
+  </si>
+  <si>
     <t>JORGE ARMANDO UZQUIANO VERTIZBLANCO</t>
   </si>
   <si>
@@ -385,6 +601,21 @@
     <t>20:58:11</t>
   </si>
   <si>
+    <t>JORGE ARMANDO</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>ARMANDO</t>
+  </si>
+  <si>
+    <t>UZQUIANO</t>
+  </si>
+  <si>
+    <t>VERTIZBLANCO</t>
+  </si>
+  <si>
     <t>JAVIER CHURA LECOÑA</t>
   </si>
   <si>
@@ -403,6 +634,15 @@
     <t>20:56:15</t>
   </si>
   <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>CHURA</t>
+  </si>
+  <si>
+    <t>LECOÑA</t>
+  </si>
+  <si>
     <t>RAFAEL CIRO SARDAN BARRERA</t>
   </si>
   <si>
@@ -421,6 +661,21 @@
     <t>20:58:12</t>
   </si>
   <si>
+    <t>RAFAEL CIRO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>CIRO</t>
+  </si>
+  <si>
+    <t>SARDAN</t>
+  </si>
+  <si>
+    <t>BARRERA</t>
+  </si>
+  <si>
     <t>DIEGO BERNARDO PEREZ VERASTEGUI</t>
   </si>
   <si>
@@ -439,6 +694,18 @@
     <t>20:56:16</t>
   </si>
   <si>
+    <t>DIEGO BERNARDO</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>BERNARDO</t>
+  </si>
+  <si>
+    <t>VERASTEGUI</t>
+  </si>
+  <si>
     <t>LUIS REYNALDO GOMEZ ZUBIETA</t>
   </si>
   <si>
@@ -457,6 +724,21 @@
     <t>20:58:13</t>
   </si>
   <si>
+    <t>LUIS REYNALDO</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>REYNALDO</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ZUBIETA</t>
+  </si>
+  <si>
     <t>JORGE ALBERTO PARDO FERNANDEZ</t>
   </si>
   <si>
@@ -475,6 +757,12 @@
     <t>20:56:17</t>
   </si>
   <si>
+    <t>JORGE ALBERTO</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
     <t>CARLA LUISA GUERRERO ALIPAZ</t>
   </si>
   <si>
@@ -493,6 +781,21 @@
     <t>20:58:14</t>
   </si>
   <si>
+    <t>CARLA LUISA</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>GUERRERO</t>
+  </si>
+  <si>
+    <t>ALIPAZ</t>
+  </si>
+  <si>
     <t>MARIELA CATUNTA LEON</t>
   </si>
   <si>
@@ -511,6 +814,15 @@
     <t>20:56:18</t>
   </si>
   <si>
+    <t>MARIELA</t>
+  </si>
+  <si>
+    <t>CATUNTA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
     <t>LESLIE PAMELA ESCALANTE TERAN</t>
   </si>
   <si>
@@ -526,6 +838,21 @@
     <t>20:58:15</t>
   </si>
   <si>
+    <t>LESLIE PAMELA</t>
+  </si>
+  <si>
+    <t>LESLIE</t>
+  </si>
+  <si>
+    <t>PAMELA</t>
+  </si>
+  <si>
+    <t>ESCALANTE</t>
+  </si>
+  <si>
+    <t>TERAN</t>
+  </si>
+  <si>
     <t>ERIKA PAUCARA MAMANI</t>
   </si>
   <si>
@@ -541,6 +868,15 @@
     <t>20:56:19</t>
   </si>
   <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>PAUCARA</t>
+  </si>
+  <si>
+    <t>MAMANI</t>
+  </si>
+  <si>
     <t>LIDIO CACERES RICARDO</t>
   </si>
   <si>
@@ -559,6 +895,15 @@
     <t>20:58:16</t>
   </si>
   <si>
+    <t>LIDIO</t>
+  </si>
+  <si>
+    <t>CACERES</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
     <t>MARCO ANTONIO ZEBALLOS SERNA</t>
   </si>
   <si>
@@ -577,6 +922,21 @@
     <t>20:56:20</t>
   </si>
   <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>ZEBALLOS</t>
+  </si>
+  <si>
+    <t>SERNA</t>
+  </si>
+  <si>
     <t>ADRIAN ABEL ROMERO CANDIA</t>
   </si>
   <si>
@@ -595,6 +955,21 @@
     <t>20:58:17</t>
   </si>
   <si>
+    <t>ADRIAN ABEL</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>ABEL</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>CANDIA</t>
+  </si>
+  <si>
     <t>ABRAHAM MAX CRUZ CALLA</t>
   </si>
   <si>
@@ -613,6 +988,21 @@
     <t>20:56:21</t>
   </si>
   <si>
+    <t>ABRAHAM MAX</t>
+  </si>
+  <si>
+    <t>ABRAHAM</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>CALLA</t>
+  </si>
+  <si>
     <t>NORHA SILVIA CLAROS ACHA</t>
   </si>
   <si>
@@ -631,6 +1021,21 @@
     <t>20:58:18</t>
   </si>
   <si>
+    <t>NORHA SILVIA</t>
+  </si>
+  <si>
+    <t>NORHA</t>
+  </si>
+  <si>
+    <t>SILVIA</t>
+  </si>
+  <si>
+    <t>CLAROS</t>
+  </si>
+  <si>
+    <t>ACHA</t>
+  </si>
+  <si>
     <t>MARIA XIMENA IBAÑEZ APARICIO</t>
   </si>
   <si>
@@ -649,6 +1054,18 @@
     <t>20:56:22</t>
   </si>
   <si>
+    <t>MARIA XIMENA</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>IBAÑEZ</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
     <t>SILVIA CONSUELO CORONEL DE MONTAÑO</t>
   </si>
   <si>
@@ -667,6 +1084,15 @@
     <t>20:58:19</t>
   </si>
   <si>
+    <t>SILVIA CONSUELO</t>
+  </si>
+  <si>
+    <t>CONSUELO</t>
+  </si>
+  <si>
+    <t>DE MONTAÑO</t>
+  </si>
+  <si>
     <t>YESSIKA CONDORI VELASQUEZ</t>
   </si>
   <si>
@@ -682,6 +1108,15 @@
     <t>20:56:23</t>
   </si>
   <si>
+    <t>YESSIKA</t>
+  </si>
+  <si>
+    <t>CONDORI</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
     <t>RENE MARTIN SILES TRIGOSO</t>
   </si>
   <si>
@@ -700,6 +1135,18 @@
     <t>20:58:20</t>
   </si>
   <si>
+    <t>RENE MARTIN</t>
+  </si>
+  <si>
+    <t>RENE</t>
+  </si>
+  <si>
+    <t>SILES</t>
+  </si>
+  <si>
+    <t>TRIGOSO</t>
+  </si>
+  <si>
     <t>KEVIN MARTIN JAUREGUI HINOJOSA</t>
   </si>
   <si>
@@ -721,6 +1168,18 @@
     <t>20:56:24</t>
   </si>
   <si>
+    <t>KEVIN MARTIN</t>
+  </si>
+  <si>
+    <t>KEVIN</t>
+  </si>
+  <si>
+    <t>JAUREGUI</t>
+  </si>
+  <si>
+    <t>HINOJOSA</t>
+  </si>
+  <si>
     <t>EULALIA LORENZA CALLE CHOQUE</t>
   </si>
   <si>
@@ -739,6 +1198,21 @@
     <t>20:58:21</t>
   </si>
   <si>
+    <t>EULALIA LORENZA</t>
+  </si>
+  <si>
+    <t>EULALIA</t>
+  </si>
+  <si>
+    <t>LORENZA</t>
+  </si>
+  <si>
+    <t>CALLE</t>
+  </si>
+  <si>
+    <t>CHOQUE</t>
+  </si>
+  <si>
     <t>HERLAN SALGUEIRO PEREZ</t>
   </si>
   <si>
@@ -754,6 +1228,12 @@
     <t>20:56:25</t>
   </si>
   <si>
+    <t>HERLAN</t>
+  </si>
+  <si>
+    <t>SALGUEIRO</t>
+  </si>
+  <si>
     <t>KATTERINE PANOZO GONZALES</t>
   </si>
   <si>
@@ -772,6 +1252,18 @@
     <t>20:58:22</t>
   </si>
   <si>
+    <t>KATTERINE PANOZO</t>
+  </si>
+  <si>
+    <t>KATTERINE</t>
+  </si>
+  <si>
+    <t>PANOZO</t>
+  </si>
+  <si>
+    <t>GONZALES</t>
+  </si>
+  <si>
     <t>ADAM VELASCO REYES</t>
   </si>
   <si>
@@ -790,6 +1282,15 @@
     <t>20:56:26</t>
   </si>
   <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>VELASCO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>JIMMY FARYN RADA BALLON</t>
   </si>
   <si>
@@ -808,6 +1309,21 @@
     <t>20:58:23</t>
   </si>
   <si>
+    <t>JIMMY FARYN</t>
+  </si>
+  <si>
+    <t>JIMMY</t>
+  </si>
+  <si>
+    <t>FARYN</t>
+  </si>
+  <si>
+    <t>RADA</t>
+  </si>
+  <si>
+    <t>BALLON</t>
+  </si>
+  <si>
     <t>GARY DANIEL LOZA SALAS</t>
   </si>
   <si>
@@ -826,6 +1342,21 @@
     <t>20:56:27</t>
   </si>
   <si>
+    <t>GARY DANIEL</t>
+  </si>
+  <si>
+    <t>GARY</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>LOZA</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
     <t>ROLY DAVID POZO MORAN</t>
   </si>
   <si>
@@ -841,6 +1372,21 @@
     <t>20:58:24</t>
   </si>
   <si>
+    <t>ROLY DAVID</t>
+  </si>
+  <si>
+    <t>ROLY</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>POZO</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
     <t>ROLANDO JOSE MALDONADO CALLISAYA</t>
   </si>
   <si>
@@ -859,6 +1405,18 @@
     <t>20:56:28</t>
   </si>
   <si>
+    <t>ROLANDO JOSE</t>
+  </si>
+  <si>
+    <t>ROLANDO</t>
+  </si>
+  <si>
+    <t>MALDONADO</t>
+  </si>
+  <si>
+    <t>CALLISAYA</t>
+  </si>
+  <si>
     <t>FELIX BALDERRAMA VEIZAGA</t>
   </si>
   <si>
@@ -877,6 +1435,15 @@
     <t>20:58:25</t>
   </si>
   <si>
+    <t>FELIX</t>
+  </si>
+  <si>
+    <t>BALDERRAMA</t>
+  </si>
+  <si>
+    <t>VEIZAGA</t>
+  </si>
+  <si>
     <t>FREDDY DIEGO MORALES ESPEJO</t>
   </si>
   <si>
@@ -895,6 +1462,18 @@
     <t>20:56:29</t>
   </si>
   <si>
+    <t>FREDDY DIEGO</t>
+  </si>
+  <si>
+    <t>FREDDY</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ESPEJO</t>
+  </si>
+  <si>
     <t>OSWALD FREDERICK VERA VARGAS</t>
   </si>
   <si>
@@ -913,6 +1492,21 @@
     <t>20:58:26</t>
   </si>
   <si>
+    <t>OSWALD FREDERICK</t>
+  </si>
+  <si>
+    <t>OSWALD</t>
+  </si>
+  <si>
+    <t>FREDERICK</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
     <t>MARIA ELENA CHULVER REYNOSO</t>
   </si>
   <si>
@@ -928,6 +1522,18 @@
     <t>20:56:30</t>
   </si>
   <si>
+    <t>MARIA ELENA</t>
+  </si>
+  <si>
+    <t>ELENA</t>
+  </si>
+  <si>
+    <t>CHULVER</t>
+  </si>
+  <si>
+    <t>REYNOSO</t>
+  </si>
+  <si>
     <t>JOHNNY JOSE LLANQUE TAPIA</t>
   </si>
   <si>
@@ -944,6 +1550,18 @@
   </si>
   <si>
     <t>20:58:27</t>
+  </si>
+  <si>
+    <t>JOHNNY JOSE</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
+  </si>
+  <si>
+    <t>LLANQUE</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
   </si>
 </sst>
 </file>
@@ -951,11 +1569,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -972,8 +1590,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -988,16 +1614,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,22 +1638,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,9 +1682,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,8 +1697,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,29 +1720,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1109,10 +1727,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1125,7 +1743,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,31 +1839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,85 +1857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,43 +1887,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,7 +1969,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,7 +1993,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,6 +2009,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1429,172 +2062,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1619,12 +2237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1636,6 +2248,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1955,10 +2570,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1977,9 +2592,15 @@
     <col min="15" max="15" width="18.8733333333333" style="3" customWidth="1"/>
     <col min="16" max="16" width="18.8733333333333" customWidth="1"/>
     <col min="19" max="19" width="12.7533333333333" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="22" max="22" width="9.9" customWidth="1"/>
+    <col min="23" max="23" width="11.7" customWidth="1"/>
+    <col min="24" max="24" width="12.9" customWidth="1"/>
+    <col min="25" max="25" width="11.9" customWidth="1"/>
+    <col min="28" max="28" width="11.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:28">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2628,7 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -2016,7 +2637,7 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -2025,7 +2646,7 @@
       <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -2037,25 +2658,52 @@
       <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:28">
       <c r="A2" s="4">
         <v>22514</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
@@ -2064,51 +2712,68 @@
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="5">
         <v>71798826</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4">
         <v>9</v>
       </c>
+      <c r="T2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:28">
       <c r="A3" s="4">
         <v>22515</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
@@ -2117,51 +2782,68 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="5">
         <v>60506160</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4">
         <v>2</v>
       </c>
+      <c r="T3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:28">
       <c r="A4" s="4">
         <v>22516</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4">
         <v>2</v>
@@ -2170,51 +2852,70 @@
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4">
         <v>8</v>
       </c>
+      <c r="T4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:28">
       <c r="A5" s="4">
         <v>22517</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -2223,51 +2924,70 @@
         <v>3</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="5">
         <v>72007768</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4">
         <v>8</v>
       </c>
+      <c r="T5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:28">
       <c r="A6" s="4">
         <v>22518</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="G6" s="4">
         <v>2</v>
@@ -2276,49 +2996,68 @@
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
       <c r="M6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>28</v>
+        <v>78</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4">
         <v>6</v>
       </c>
+      <c r="T6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:28">
       <c r="A7" s="4">
         <v>22519</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
@@ -2327,51 +3066,68 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="5">
         <v>71237401</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>28</v>
+        <v>89</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4">
         <v>8</v>
       </c>
+      <c r="T7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:28">
       <c r="A8" s="4">
         <v>22520</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -2380,51 +3136,70 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="5">
         <v>78788891</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>28</v>
+        <v>98</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4">
         <v>4</v>
       </c>
+      <c r="T8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:28">
       <c r="A9" s="4">
         <v>22521</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -2433,51 +3208,70 @@
         <v>2</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>28</v>
+        <v>110</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4">
         <v>8</v>
       </c>
+      <c r="T9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:28">
       <c r="A10" s="4">
         <v>22522</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -2486,51 +3280,70 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="5">
         <v>2783624</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>28</v>
+        <v>121</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4">
         <v>2</v>
       </c>
+      <c r="T10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:28">
       <c r="A11" s="4">
         <v>22523</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -2539,51 +3352,70 @@
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="5">
         <v>72044627</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>28</v>
+        <v>131</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4">
         <v>8</v>
       </c>
+      <c r="T11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:28">
       <c r="A12" s="4">
         <v>22524</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -2592,51 +3424,70 @@
         <v>2</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="5">
         <v>70606535</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>28</v>
+        <v>142</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4">
         <v>9</v>
       </c>
+      <c r="T12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:28">
       <c r="A13" s="4">
         <v>22525</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
@@ -2645,51 +3496,69 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>94</v>
+        <v>32</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="5">
         <v>70666802</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>28</v>
+        <v>153</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4">
         <v>9</v>
       </c>
+      <c r="T13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:28">
       <c r="A14" s="4">
         <v>22526</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -2698,51 +3567,68 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="5">
         <v>76533224</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>28</v>
+        <v>163</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4">
         <v>5</v>
       </c>
+      <c r="T14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:28">
       <c r="A15" s="4">
         <v>22527</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="G15" s="4">
         <v>2</v>
@@ -2751,51 +3637,69 @@
         <v>2</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>106</v>
+        <v>32</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5">
         <v>2444124</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>28</v>
+        <v>171</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4">
         <v>2</v>
       </c>
+      <c r="T15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:28">
       <c r="A16" s="4">
         <v>22528</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="G16" s="4">
         <v>2</v>
@@ -2804,51 +3708,68 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>112</v>
+        <v>32</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>28</v>
+        <v>183</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4">
         <v>6</v>
       </c>
+      <c r="T16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:28">
       <c r="A17" s="4">
         <v>22529</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -2857,51 +3778,70 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>119</v>
+        <v>32</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5">
         <v>78812318</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>28</v>
+        <v>192</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4">
         <v>8</v>
       </c>
+      <c r="T17" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:28">
       <c r="A18" s="4">
         <v>22530</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -2910,51 +3850,68 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>125</v>
+        <v>32</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="5">
         <v>71979626</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>28</v>
+        <v>203</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4">
         <v>8</v>
       </c>
+      <c r="T18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:28">
       <c r="A19" s="4">
         <v>22531</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -2963,51 +3920,70 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>131</v>
+        <v>32</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="5">
         <v>2791424</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>28</v>
+        <v>212</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4">
         <v>2</v>
       </c>
+      <c r="T19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:28">
       <c r="A20" s="4">
         <v>22532</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -3016,47 +3992,66 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>137</v>
+        <v>32</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
       <c r="M20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>28</v>
+        <v>223</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
+      <c r="T20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:28">
       <c r="A21" s="4">
         <v>22533</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -3065,49 +4060,68 @@
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>143</v>
+        <v>32</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
       <c r="M21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>28</v>
+        <v>233</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4">
         <v>8</v>
       </c>
+      <c r="T21" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:28">
       <c r="A22" s="4">
         <v>22534</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -3116,51 +4130,70 @@
         <v>1</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>149</v>
+        <v>32</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="5">
         <v>70628862</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>28</v>
+        <v>244</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4">
         <v>8</v>
       </c>
+      <c r="T22" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:28">
       <c r="A23" s="4">
         <v>22535</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
@@ -3169,49 +4202,68 @@
         <v>2</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>155</v>
+        <v>32</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="5">
         <v>2453982</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>28</v>
+        <v>252</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
+      <c r="T23" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:28">
       <c r="A24" s="4">
         <v>22536</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>261</v>
       </c>
       <c r="G24" s="4">
         <v>2</v>
@@ -3220,51 +4272,68 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>161</v>
+        <v>32</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="5">
         <v>75295783</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>28</v>
+        <v>263</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4">
         <v>6</v>
       </c>
+      <c r="T24" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:28">
       <c r="A25" s="4">
         <v>22537</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="G25" s="4">
         <v>2</v>
@@ -3273,51 +4342,70 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>167</v>
+        <v>32</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="5">
         <v>76204116</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>28</v>
+        <v>244</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4">
         <v>1</v>
       </c>
+      <c r="T25" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:28">
       <c r="A26" s="4">
         <v>22538</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="G26" s="4">
         <v>2</v>
@@ -3326,51 +4414,68 @@
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>172</v>
+        <v>32</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="5">
         <v>73054151</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>28</v>
+        <v>263</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4">
         <v>8</v>
       </c>
+      <c r="T26" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:28">
       <c r="A27" s="4">
         <v>22539</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -3379,51 +4484,68 @@
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>177</v>
+        <v>32</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="5">
         <v>72072043</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>28</v>
+        <v>290</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4">
         <v>8</v>
       </c>
+      <c r="T27" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:28">
       <c r="A28" s="4">
         <v>22540</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -3432,51 +4554,70 @@
         <v>2</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>183</v>
+        <v>32</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="5">
         <v>2253759</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>28</v>
+        <v>299</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4">
         <v>5</v>
       </c>
+      <c r="T28" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:28">
       <c r="A29" s="4">
         <v>22541</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -3485,51 +4626,70 @@
         <v>1</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>189</v>
+        <v>32</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="5">
         <v>75275831</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>28</v>
+        <v>310</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4">
         <v>8</v>
       </c>
+      <c r="T29" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:28">
       <c r="A30" s="4">
         <v>22542</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>192</v>
+        <v>317</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>193</v>
+        <v>318</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -3538,51 +4698,70 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>195</v>
+        <v>32</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="5">
         <v>78961660</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>28</v>
+        <v>321</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4">
         <v>5</v>
       </c>
+      <c r="T30" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:28">
       <c r="A31" s="4">
         <v>22543</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>199</v>
+        <v>329</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="G31" s="4">
         <v>2</v>
@@ -3591,51 +4770,70 @@
         <v>2</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>201</v>
+        <v>32</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="5">
         <v>2732884</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>28</v>
+        <v>332</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4">
         <v>2</v>
       </c>
+      <c r="T31" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:28">
       <c r="A32" s="4">
         <v>22544</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>205</v>
+        <v>340</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>341</v>
       </c>
       <c r="G32" s="4">
         <v>2</v>
@@ -3644,51 +4842,70 @@
         <v>2</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>207</v>
+        <v>32</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="5">
         <v>79615050</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>28</v>
+        <v>343</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4">
         <v>8</v>
       </c>
+      <c r="T32" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:28">
       <c r="A33" s="4">
         <v>22545</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>210</v>
+        <v>349</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>212</v>
+        <v>351</v>
       </c>
       <c r="G33" s="4">
         <v>2</v>
@@ -3697,51 +4914,69 @@
         <v>2</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>213</v>
+        <v>32</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="5">
         <v>68211329</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="P33" s="14" t="s">
-        <v>28</v>
+        <v>353</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4">
         <v>6</v>
       </c>
+      <c r="T33" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:28">
       <c r="A34" s="4">
         <v>22546</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>217</v>
+        <v>359</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>360</v>
       </c>
       <c r="G34" s="4">
         <v>2</v>
@@ -3750,51 +4985,68 @@
         <v>1</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>219</v>
+        <v>32</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="5">
         <v>67083329</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>28</v>
+        <v>299</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4">
         <v>8</v>
       </c>
+      <c r="T34" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:28">
       <c r="A35" s="4">
         <v>22547</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>368</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -3803,49 +5055,68 @@
         <v>2</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>224</v>
+        <v>32</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
       <c r="M35" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>28</v>
+        <v>370</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4">
         <v>8</v>
       </c>
+      <c r="T35" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:28">
       <c r="A36" s="4">
         <v>22548</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>228</v>
+        <v>377</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>229</v>
+        <v>378</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -3854,51 +5125,70 @@
         <v>1</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>230</v>
+        <v>32</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="5" t="s">
-        <v>231</v>
+        <v>380</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="P36" s="14" t="s">
-        <v>28</v>
+        <v>381</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4">
         <v>5</v>
       </c>
+      <c r="T36" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:28">
       <c r="A37" s="4">
         <v>22549</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>234</v>
+        <v>387</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>235</v>
+        <v>388</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>389</v>
       </c>
       <c r="G37" s="4">
         <v>2</v>
@@ -3907,51 +5197,70 @@
         <v>1</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>237</v>
+        <v>32</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="5">
         <v>79606391</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="P37" s="14" t="s">
-        <v>28</v>
+        <v>391</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4">
         <v>8</v>
       </c>
+      <c r="T37" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:28">
       <c r="A38" s="4">
         <v>22550</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>240</v>
+        <v>398</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>241</v>
+        <v>399</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -3960,51 +5269,68 @@
         <v>2</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>243</v>
+        <v>32</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="5">
         <v>70666087</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="P38" s="14" t="s">
-        <v>28</v>
+        <v>370</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4">
         <v>2</v>
       </c>
+      <c r="T38" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:28">
       <c r="A39" s="4">
         <v>22551</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>245</v>
+        <v>405</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>247</v>
+        <v>407</v>
       </c>
       <c r="G39" s="4">
         <v>2</v>
@@ -4013,51 +5339,68 @@
         <v>1</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>248</v>
+        <v>32</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="5">
         <v>69489621</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="P39" s="14" t="s">
-        <v>28</v>
+        <v>409</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4">
         <v>5</v>
       </c>
+      <c r="T39" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:28">
       <c r="A40" s="4">
         <v>22552</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>251</v>
+        <v>415</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>252</v>
+        <v>416</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>417</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -4066,51 +5409,68 @@
         <v>2</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>254</v>
+        <v>32</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="5">
         <v>2797025</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="P40" s="14" t="s">
-        <v>28</v>
+        <v>419</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4">
         <v>2</v>
       </c>
+      <c r="T40" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:28">
       <c r="A41" s="4">
         <v>22553</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>257</v>
+        <v>424</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>258</v>
+        <v>425</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>259</v>
+        <v>426</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
@@ -4119,51 +5479,70 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>260</v>
+        <v>32</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="5">
         <v>7158725</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>28</v>
+        <v>428</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4">
         <v>3</v>
       </c>
+      <c r="T41" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:28">
       <c r="A42" s="4">
         <v>22554</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>263</v>
+        <v>435</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>264</v>
+        <v>436</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>265</v>
+        <v>437</v>
       </c>
       <c r="G42" s="4">
         <v>1</v>
@@ -4172,51 +5551,70 @@
         <v>2</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>266</v>
+        <v>32</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="5">
         <v>65629349</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O42" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="P42" s="14" t="s">
-        <v>28</v>
+        <v>439</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4">
         <v>5</v>
       </c>
+      <c r="T42" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:28">
       <c r="A43" s="4">
         <v>22555</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>269</v>
+        <v>446</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>270</v>
+        <v>447</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>271</v>
+        <v>448</v>
       </c>
       <c r="G43" s="4">
         <v>1</v>
@@ -4225,51 +5623,70 @@
         <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>272</v>
+        <v>32</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="5">
         <v>2416216</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>28</v>
+        <v>299</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4">
         <v>2</v>
       </c>
+      <c r="T43" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:28">
       <c r="A44" s="4">
         <v>22556</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>274</v>
+        <v>456</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>275</v>
+        <v>457</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>276</v>
+        <v>458</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
@@ -4278,51 +5695,70 @@
         <v>1</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>277</v>
+        <v>32</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="5">
         <v>78795156</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="P44" s="14" t="s">
-        <v>28</v>
+        <v>460</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4">
         <v>8</v>
       </c>
+      <c r="T44" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:28">
       <c r="A45" s="4">
         <v>22557</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>281</v>
+        <v>467</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>282</v>
+        <v>468</v>
       </c>
       <c r="G45" s="4">
         <v>1</v>
@@ -4331,51 +5767,68 @@
         <v>2</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>283</v>
+        <v>32</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="5">
         <v>62530910</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="P45" s="14" t="s">
-        <v>28</v>
+        <v>470</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4">
         <v>3</v>
       </c>
+      <c r="T45" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:28">
       <c r="A46" s="4">
         <v>22558</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>286</v>
+        <v>475</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>287</v>
+        <v>476</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="G46" s="4">
         <v>1</v>
@@ -4384,51 +5837,70 @@
         <v>2</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>289</v>
+        <v>32</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="5">
         <v>2458103</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="P46" s="14" t="s">
-        <v>28</v>
+        <v>479</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4">
         <v>2</v>
       </c>
+      <c r="T46" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:28">
       <c r="A47" s="4">
         <v>22559</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>292</v>
+        <v>485</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>293</v>
+        <v>486</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>294</v>
+        <v>487</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
@@ -4437,51 +5909,70 @@
         <v>1</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>295</v>
+        <v>32</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="5">
         <v>69757730</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O47" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="P47" s="14" t="s">
-        <v>28</v>
+        <v>489</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4">
         <v>4</v>
       </c>
+      <c r="T47" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:28">
       <c r="A48" s="4">
         <v>22560</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>298</v>
+        <v>496</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>299</v>
+        <v>497</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="G48" s="4">
         <v>2</v>
@@ -4490,51 +5981,70 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>301</v>
+        <v>32</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="5">
         <v>2236811</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="N48" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O48" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>28</v>
+        <v>489</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4">
         <v>1</v>
       </c>
+      <c r="T48" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:28">
       <c r="A49" s="4">
         <v>22561</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>303</v>
+        <v>505</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>304</v>
+        <v>506</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>305</v>
+        <v>507</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
@@ -4543,32 +6053,51 @@
         <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>306</v>
+        <v>32</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="5">
         <v>73208110</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>28</v>
+        <v>509</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4">
         <v>2</v>
       </c>
+      <c r="T49" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
